--- a/similarities/split_global/harmonic_similarity_timestamps_356.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_356.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -493,673 +503,747 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A:dim7/A#', 'A#:min', 'A:dim7/A#'], ['F:7', 'A#:min', 'A:dim7/A#', 'A#:min']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min', 'G#:dim7', 'A:min', 'G#:dim7'], ['E:7', 'A:min', 'G#:dim7', 'A:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.260000', '0:00:08.400000'), ('0:01:21.340000', '0:01:32.140000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:21.900000', '0:00:26.280000'), ('0:00:20.380000', '0:00:24.760000')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=0.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=81.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=21.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=20.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_238</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_56</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['B:dim7', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G#:dim7', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:14.080000', '0:00:20.540000')]</t>
+          <t>('0:00:30.076213', '0:00:37.274399')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000')]</t>
+          <t>('0:00:17.200000', '0:00:18.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=14.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=30.076213</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-56#t=17.2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:04:09.320000', '0:04:23.440000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:04:10.300000', '0:04:17.660000')]</t>
+          <t>('0:00:43.880000', '0:00:48.020000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=249.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min', 'C:min/G', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:00:00.220000', '0:00:03.440000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:25.480000', '0:00:32.760000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=25.48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F', 'F:maj6', 'G:7']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C', 'A:min7', 'D:7']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.170000', '0:00:11.280000')]</t>
+          <t>('0:00:08.700000', '0:00:32.100000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:19.551000', '0:00:23.760000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=7.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=19.551']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_282</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:maj', 'D:maj/F#', 'A:min/E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['Eb/5', 'Bb', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:19.400000', '0:00:44.180000')]</t>
+          <t>('0:01:09', '0:01:11.420000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:12.780000', '0:00:20.500000')]</t>
+          <t>('0:00:08.624535', '0:00:20.350612')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=19.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=69.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=12.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=8.624535</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb/5', 'Bb:maj']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:06.360000', '0:00:13.580000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:04:15.633000', '0:04:18.257000')]</t>
+          <t>('0:00:17.480000', '0:00:19.720000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=6.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=255.633']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:08.480000')]</t>
+          <t>('0:00:01.440000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb', 'Eb', 'Bb/3']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.253000', '0:00:23.992000')]</t>
+          <t>('0:00:31.910000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:09.840000', '0:00:13.160000')]</t>
+          <t>('0:01:56.700000', '0:01:59.480000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.253']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=9.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=116.7</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:59.800000', '0:01:09.340000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=59.8</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_115</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:00:35.920000', '0:00:47.140000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+          <t>('0:01:46.460000', '0:02:05.020000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=35.92</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=106.46</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>isophonics_64</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:30.050000', '0:00:41.370000')]</t>
+          <t>('0:01:14.879000', '0:01:25.949000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D', 'G']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:30.105000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:16.933718')]</t>
+          <t>('0:00:01.460000', '0:00:09.840000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:00.300000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:26.923922', '0:01:32.322562')]</t>
+          <t>('0:00:10.160000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=10.16</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_275</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['D:7', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:7', 'F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000')]</t>
+          <t>('0:00:07.102281', '0:00:22.589990')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:07.400000', '0:00:12.020000')]</t>
+          <t>('0:00:16.020000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=7.102281</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=16.02</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
